--- a/biology/Botanique/Phytophthora_citrophthora/Phytophthora_citrophthora.xlsx
+++ b/biology/Botanique/Phytophthora_citrophthora/Phytophthora_citrophthora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytophthora citrophthora est une espèce d'oomycètes de la famille des Peronosporaceae à répartition cosmopolite.
 C'est un agent phytopathogène qui attaque de nombreuses espèces de plantes, notamment les agrumes chez lesquels il provoque diverses maladies : gommose, mildiou, pourriture brune des agrumes.
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (29 août 2015)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 août 2015) :
 Phytophthora imperfecta var. citrophthora (R.E. Sm. &amp; E.H. Sm.) Sarej. 1936,
-Pythiacystis citrophthora R.E. Sm. &amp; E.H. Sm. 1906.
-Liste des variétés
-variété Phytophthora citrophthora var. clementina</t>
+Pythiacystis citrophthora R.E. Sm. &amp; E.H. Sm. 1906.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Phytophthora_citrophthora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytophthora_citrophthora</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>variété Phytophthora citrophthora var. clementina</t>
         </is>
       </c>
     </row>
